--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2046514.248968708</v>
+        <v>-2049373.057122958</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>247.8492622354203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>255.0853779233022</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>211.7622969289077</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.9169039459368</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.26345344776047</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>255.0853779233022</v>
-      </c>
-      <c r="W2" t="n">
-        <v>255.0853779233022</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>127.2766801099369</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>150.0076248156969</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>216.6841831505613</v>
       </c>
       <c r="X4" t="n">
-        <v>162.7799144898418</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>116.7041034359431</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>135.5315095871265</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>96.45386748816402</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>54.36310220592428</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.698873946417873</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015062</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6578039426845</v>
+        <v>411.6578039426844</v>
       </c>
       <c r="H8" t="n">
-        <v>9.389872410767213</v>
+        <v>302.1461261669076</v>
       </c>
       <c r="I8" t="n">
-        <v>69.95458801850543</v>
+        <v>69.95458801850458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.85412787547142</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3933057711207</v>
       </c>
       <c r="H9" t="n">
-        <v>93.40050789710149</v>
+        <v>93.40050789710138</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.25119676410745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.4588498516409</v>
+        <v>1.219263221889114</v>
       </c>
       <c r="T9" t="n">
-        <v>80.31561834963125</v>
+        <v>192.3040082153011</v>
       </c>
       <c r="U9" t="n">
         <v>225.8130786999163</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3559876391771</v>
       </c>
       <c r="H10" t="n">
-        <v>147.6906097669176</v>
+        <v>120.7444075227399</v>
       </c>
       <c r="I10" t="n">
-        <v>106.2818148601347</v>
+        <v>106.2818148601345</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.7782182538343</v>
+        <v>103.7782182538338</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.5231514382188</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9597157186237</v>
+        <v>220.9597157186236</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.93735132210702</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99.17988875728673</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>62.50448303558209</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>213.73949968803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.32297266393898</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187867</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881287</v>
@@ -2621,7 +2621,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>135.3120514073115</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>127.6065435523131</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>505.0175158885579</v>
+        <v>528.4216182729779</v>
       </c>
       <c r="C2" t="n">
-        <v>247.3555179862324</v>
+        <v>528.4216182729779</v>
       </c>
       <c r="D2" t="n">
-        <v>247.3555179862324</v>
+        <v>528.4216182729779</v>
       </c>
       <c r="E2" t="n">
-        <v>247.3555179862324</v>
+        <v>528.4216182729779</v>
       </c>
       <c r="F2" t="n">
-        <v>33.45420795703266</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="H2" t="n">
         <v>20.40683023386418</v>
@@ -4328,7 +4328,7 @@
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>41.64108022724748</v>
+        <v>101.5286049718923</v>
       </c>
       <c r="K2" t="n">
         <v>184.0917595464847</v>
@@ -4355,25 +4355,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S2" t="n">
-        <v>1020.341511693209</v>
+        <v>1000.883477907592</v>
       </c>
       <c r="T2" t="n">
-        <v>1020.341511693209</v>
+        <v>786.0836161753034</v>
       </c>
       <c r="U2" t="n">
-        <v>1020.341511693209</v>
+        <v>786.0836161753034</v>
       </c>
       <c r="V2" t="n">
-        <v>762.6795137908834</v>
+        <v>786.0836161753034</v>
       </c>
       <c r="W2" t="n">
-        <v>505.0175158885579</v>
+        <v>786.0836161753034</v>
       </c>
       <c r="X2" t="n">
-        <v>505.0175158885579</v>
+        <v>528.4216182729779</v>
       </c>
       <c r="Y2" t="n">
-        <v>505.0175158885579</v>
+        <v>528.4216182729779</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.5602630945151</v>
+        <v>612.5546505144641</v>
       </c>
       <c r="C3" t="n">
-        <v>280.5602630945151</v>
+        <v>612.5546505144641</v>
       </c>
       <c r="D3" t="n">
-        <v>280.5602630945151</v>
+        <v>463.6202408532128</v>
       </c>
       <c r="E3" t="n">
-        <v>121.3228080890596</v>
+        <v>304.3827858477573</v>
       </c>
       <c r="F3" t="n">
-        <v>121.3228080890596</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="G3" t="n">
-        <v>121.3228080890596</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H3" t="n">
         <v>20.40683023386418</v>
@@ -4407,52 +4407,52 @@
         <v>20.40683023386418</v>
       </c>
       <c r="J3" t="n">
-        <v>139.0660820907598</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K3" t="n">
-        <v>206.6739017541169</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L3" t="n">
-        <v>343.9034997698108</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M3" t="n">
-        <v>523.4008361244156</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N3" t="n">
-        <v>722.0575777770803</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O3" t="n">
-        <v>888.9149429639332</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P3" t="n">
-        <v>997.604570491232</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q3" t="n">
         <v>1020.341511693209</v>
       </c>
       <c r="R3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="T3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="U3" t="n">
-        <v>891.7792085518586</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="V3" t="n">
-        <v>656.6271003201159</v>
+        <v>764.077503863653</v>
       </c>
       <c r="W3" t="n">
-        <v>656.6271003201159</v>
+        <v>764.077503863653</v>
       </c>
       <c r="X3" t="n">
-        <v>448.7756001145831</v>
+        <v>764.077503863653</v>
       </c>
       <c r="Y3" t="n">
-        <v>448.7756001145831</v>
+        <v>612.5546505144641</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="C4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="D4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="E4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="F4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="G4" t="n">
-        <v>20.40683023386418</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="H4" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="I4" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="J4" t="n">
         <v>20.40683023386418</v>
@@ -4510,28 +4510,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R4" t="n">
-        <v>1020.341511693209</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="S4" t="n">
-        <v>812.9012269456143</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="T4" t="n">
-        <v>587.2720302579793</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="U4" t="n">
-        <v>587.2720302579793</v>
+        <v>632.2015525102861</v>
       </c>
       <c r="V4" t="n">
-        <v>587.2720302579793</v>
+        <v>632.2015525102861</v>
       </c>
       <c r="W4" t="n">
-        <v>587.2720302579793</v>
+        <v>413.3286402369918</v>
       </c>
       <c r="X4" t="n">
-        <v>422.847874207634</v>
+        <v>413.3286402369918</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.0552950641039</v>
+        <v>192.5360610934617</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="D5" t="n">
-        <v>833.193892875099</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="E5" t="n">
-        <v>566.8162363079209</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672985</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358416</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.1158302633464</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>268.1158302633464</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>268.1158302633464</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
         <v>21.0971104001205</v>
@@ -4644,22 +4644,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>899.6191214783437</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>671.4832755151572</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V6" t="n">
-        <v>436.3311672834144</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W6" t="n">
-        <v>436.3311672834144</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="X6" t="n">
-        <v>436.3311672834144</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y6" t="n">
-        <v>436.3311672834144</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>292.3946216843404</v>
+        <v>386.0368194650769</v>
       </c>
       <c r="C7" t="n">
-        <v>292.3946216843404</v>
+        <v>386.0368194650769</v>
       </c>
       <c r="D7" t="n">
-        <v>292.3946216843404</v>
+        <v>386.0368194650769</v>
       </c>
       <c r="E7" t="n">
-        <v>144.4815281019473</v>
+        <v>238.1237258826837</v>
       </c>
       <c r="F7" t="n">
-        <v>144.4815281019473</v>
+        <v>91.23377838477339</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4729,16 +4729,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4753,22 +4753,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1053.139485716714</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>786.7618291495357</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V7" t="n">
-        <v>786.7618291495357</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W7" t="n">
-        <v>520.3841725823578</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X7" t="n">
-        <v>292.3946216843404</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y7" t="n">
-        <v>292.3946216843404</v>
+        <v>567.6852842953166</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.485667248311</v>
+        <v>1620.185507716185</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.523150307899</v>
+        <v>1251.222990775773</v>
       </c>
       <c r="D8" t="n">
-        <v>937.257451701149</v>
+        <v>1251.222990775773</v>
       </c>
       <c r="E8" t="n">
-        <v>551.4691991029047</v>
+        <v>1251.222990775773</v>
       </c>
       <c r="F8" t="n">
-        <v>544.5236983537012</v>
+        <v>840.2370859861658</v>
       </c>
       <c r="G8" t="n">
-        <v>128.707734775232</v>
+        <v>424.4211224076967</v>
       </c>
       <c r="H8" t="n">
-        <v>119.2230151683964</v>
+        <v>119.2230151683961</v>
       </c>
       <c r="I8" t="n">
-        <v>48.56181514970405</v>
+        <v>48.56181514970458</v>
       </c>
       <c r="J8" t="n">
-        <v>175.5919586551131</v>
+        <v>175.5919586551158</v>
       </c>
       <c r="K8" t="n">
-        <v>416.715732848025</v>
+        <v>416.7157328480304</v>
       </c>
       <c r="L8" t="n">
-        <v>752.7528582148855</v>
+        <v>752.7528582148943</v>
       </c>
       <c r="M8" t="n">
-        <v>1158.32834505191</v>
+        <v>1158.328345051923</v>
       </c>
       <c r="N8" t="n">
-        <v>1575.080275660908</v>
+        <v>1575.080275660925</v>
       </c>
       <c r="O8" t="n">
-        <v>1955.272044794116</v>
+        <v>1955.272044794137</v>
       </c>
       <c r="P8" t="n">
-        <v>2245.255922842903</v>
+        <v>2245.255922842926</v>
       </c>
       <c r="Q8" t="n">
-        <v>2414.84899198595</v>
+        <v>2414.848991985975</v>
       </c>
       <c r="R8" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="S8" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="T8" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="U8" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="V8" t="n">
-        <v>2428.090757485203</v>
+        <v>2346.419921247379</v>
       </c>
       <c r="W8" t="n">
-        <v>2428.090757485203</v>
+        <v>1993.651265977265</v>
       </c>
       <c r="X8" t="n">
-        <v>2054.624999224123</v>
+        <v>1620.185507716185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.485667248311</v>
+        <v>1620.185507716185</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>908.8261293617865</v>
+        <v>931.3020856891679</v>
       </c>
       <c r="C9" t="n">
-        <v>734.3731000806595</v>
+        <v>756.849056408041</v>
       </c>
       <c r="D9" t="n">
-        <v>585.4386904194082</v>
+        <v>607.9146467467897</v>
       </c>
       <c r="E9" t="n">
-        <v>426.2012354139526</v>
+        <v>448.6771917413342</v>
       </c>
       <c r="F9" t="n">
-        <v>279.6666774408376</v>
+        <v>302.1426337682192</v>
       </c>
       <c r="G9" t="n">
-        <v>142.9057625205136</v>
+        <v>165.3817188478953</v>
       </c>
       <c r="H9" t="n">
-        <v>48.56181514970405</v>
+        <v>71.03777147708584</v>
       </c>
       <c r="I9" t="n">
-        <v>48.56181514970405</v>
+        <v>48.56181514970458</v>
       </c>
       <c r="J9" t="n">
-        <v>230.232376407934</v>
+        <v>105.4022514209309</v>
       </c>
       <c r="K9" t="n">
-        <v>555.3594912108294</v>
+        <v>280.7064351448684</v>
       </c>
       <c r="L9" t="n">
-        <v>837.4001412627823</v>
+        <v>562.7470851968238</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.88514504764</v>
+        <v>911.2320889816847</v>
       </c>
       <c r="N9" t="n">
-        <v>1558.002154848939</v>
+        <v>1283.349098782986</v>
       </c>
       <c r="O9" t="n">
-        <v>1876.196724659623</v>
+        <v>1884.30156126058</v>
       </c>
       <c r="P9" t="n">
-        <v>2112.242853218225</v>
+        <v>2320.21936807674</v>
       </c>
       <c r="Q9" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="R9" t="n">
-        <v>2428.090757485203</v>
+        <v>2428.090757485229</v>
       </c>
       <c r="S9" t="n">
-        <v>2291.263636422939</v>
+        <v>2426.85917847322</v>
       </c>
       <c r="T9" t="n">
-        <v>2210.13674920109</v>
+        <v>2232.612705528471</v>
       </c>
       <c r="U9" t="n">
-        <v>1982.042730312285</v>
+        <v>2004.518686639667</v>
       </c>
       <c r="V9" t="n">
-        <v>1746.890622080543</v>
+        <v>1769.366578407924</v>
       </c>
       <c r="W9" t="n">
-        <v>1492.653265352341</v>
+        <v>1515.129221679723</v>
       </c>
       <c r="X9" t="n">
-        <v>1284.801765146808</v>
+        <v>1307.27772147419</v>
       </c>
       <c r="Y9" t="n">
-        <v>1077.041466381854</v>
+        <v>1099.517422709236</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.065533725928</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="C10" t="n">
-        <v>603.1293507980212</v>
+        <v>890.8372633413858</v>
       </c>
       <c r="D10" t="n">
-        <v>453.0127113856854</v>
+        <v>740.72062392905</v>
       </c>
       <c r="E10" t="n">
-        <v>305.0996178032923</v>
+        <v>592.8075303466569</v>
       </c>
       <c r="F10" t="n">
-        <v>305.0996178032923</v>
+        <v>445.9175828487465</v>
       </c>
       <c r="G10" t="n">
-        <v>305.0996178032923</v>
+        <v>277.8812316980625</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9171836952947</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="I10" t="n">
-        <v>48.56181514970405</v>
+        <v>48.56181514970458</v>
       </c>
       <c r="J10" t="n">
-        <v>70.57420224187618</v>
+        <v>70.57420224187739</v>
       </c>
       <c r="K10" t="n">
-        <v>236.5841528860236</v>
+        <v>236.5841528860259</v>
       </c>
       <c r="L10" t="n">
-        <v>504.5461690879206</v>
+        <v>504.5461690879244</v>
       </c>
       <c r="M10" t="n">
-        <v>797.4636672202989</v>
+        <v>797.4636672203043</v>
       </c>
       <c r="N10" t="n">
-        <v>1088.850858371743</v>
+        <v>1088.850858371749</v>
       </c>
       <c r="O10" t="n">
-        <v>1341.977796269157</v>
+        <v>1341.977796269165</v>
       </c>
       <c r="P10" t="n">
-        <v>1535.050938441305</v>
+        <v>1535.050938441315</v>
       </c>
       <c r="Q10" t="n">
-        <v>1585.289694158854</v>
+        <v>1585.289694158865</v>
       </c>
       <c r="R10" t="n">
-        <v>1480.463211074173</v>
+        <v>1480.463211074184</v>
       </c>
       <c r="S10" t="n">
-        <v>1480.463211074173</v>
+        <v>1282.965078308306</v>
       </c>
       <c r="T10" t="n">
-        <v>1257.271579035159</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.271579035159</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="V10" t="n">
-        <v>1174.506577699698</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="W10" t="n">
-        <v>1174.506577699698</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="X10" t="n">
-        <v>1174.506577699698</v>
+        <v>1059.773446269293</v>
       </c>
       <c r="Y10" t="n">
-        <v>953.7139985561678</v>
+        <v>1059.773446269293</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434716</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155647</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015259</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2386.030787960121</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2203.175953615025</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.574488637966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.574488637966</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1728.890000432079</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1439.472830395119</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.483279497101</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,46 +6212,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.6979859831833</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778181</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.989413183089</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851785</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000584</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956953</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813423</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954143</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7640,46 +7640,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.49244923701501</v>
       </c>
       <c r="K2" t="n">
-        <v>60.49244923701502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.41924496776997</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>127.2770751262504</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>151.3362940191513</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>285.6140329968757</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>201.8905840985416</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>24.59532647964276</v>
+        <v>24.59532647964204</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.292112491659494e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.387520911232075e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>110.1875138477053</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.3399092192372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>195.1137488128037</v>
+        <v>159.0267835062911</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>72.66688054683266</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>94.15559079411076</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>114.6457227551668</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>31.17527673479475</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>69.83881518602968</v>
       </c>
       <c r="X4" t="n">
-        <v>62.92974089919534</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>49.43558426092562</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>86.11098998263026</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>80.64613085857654</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.44497470121414</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.052274046182674</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>31.9347696913164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.00892946589926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772871</v>
+        <v>67700.8563577287</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900061</v>
@@ -26335,25 +26335,25 @@
         <v>80714.65996900064</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900067</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>21526.81581402959</v>
       </c>
       <c r="D3" t="n">
-        <v>357247.7748456891</v>
+        <v>357247.7748456958</v>
       </c>
       <c r="E3" t="n">
-        <v>539509.6920798733</v>
+        <v>539509.6920798668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.94754557376395e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>66741.55862136446</v>
+        <v>66741.55862136438</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863264</v>
+        <v>2220.700322863194</v>
       </c>
       <c r="L3" t="n">
-        <v>106316.0878658424</v>
+        <v>106316.0878658441</v>
       </c>
       <c r="M3" t="n">
-        <v>140971.1139454992</v>
+        <v>140971.1139454975</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074097001817011e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>169849.096693577</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="D4" t="n">
-        <v>144085.4293086937</v>
+        <v>144085.4293086918</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731947</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731856</v>
+        <v>8117.312426731933</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982542</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982538</v>
+        <v>16108.17168982551</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.1716898255</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>90300.14304378138</v>
+        <v>90300.14304378189</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-821589.0728818096</v>
+        <v>-821949.155897527</v>
       </c>
       <c r="C6" t="n">
         <v>-249224.3094300988</v>
       </c>
       <c r="D6" t="n">
-        <v>-509529.1702117359</v>
+        <v>-509529.1702117411</v>
       </c>
       <c r="E6" t="n">
-        <v>-568034.8743615118</v>
+        <v>-568069.6122869409</v>
       </c>
       <c r="F6" t="n">
-        <v>-28525.18228163845</v>
+        <v>-28559.92020707413</v>
       </c>
       <c r="G6" t="n">
-        <v>-28525.18228163847</v>
+        <v>-28559.9202070742</v>
       </c>
       <c r="H6" t="n">
-        <v>-28525.18228163848</v>
+        <v>-28559.92020707417</v>
       </c>
       <c r="I6" t="n">
-        <v>-28525.18228163838</v>
+        <v>-28559.92020707426</v>
       </c>
       <c r="J6" t="n">
-        <v>-95266.74090300276</v>
+        <v>-95301.4788284385</v>
       </c>
       <c r="K6" t="n">
-        <v>-30745.88260450173</v>
+        <v>-30780.62052993738</v>
       </c>
       <c r="L6" t="n">
-        <v>-143484.1984231549</v>
+        <v>-143484.1984231567</v>
       </c>
       <c r="M6" t="n">
-        <v>-178139.2245028116</v>
+        <v>-178139.22450281</v>
       </c>
       <c r="N6" t="n">
-        <v>-37168.11055731238</v>
+        <v>-37168.11055731254</v>
       </c>
       <c r="O6" t="n">
-        <v>-37168.11055731234</v>
+        <v>-37168.11055731258</v>
       </c>
       <c r="P6" t="n">
-        <v>-37168.11055731257</v>
+        <v>-37168.1105573125</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>906.6772261470783</v>
+        <v>906.6772261470837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>607.0226893713007</v>
+        <v>607.0226893713073</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.236039841907248e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.342621252271263e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>20.5789134314133</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6222123775999</v>
+        <v>292.6222123776054</v>
       </c>
       <c r="E3" t="n">
-        <v>461.2982741945955</v>
+        <v>461.29827419459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>8.628502078203951</v>
       </c>
       <c r="D4" t="n">
-        <v>343.3088093697945</v>
+        <v>343.3088093698011</v>
       </c>
       <c r="E4" t="n">
-        <v>565.6855987283477</v>
+        <v>565.6855987283411</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>255.0853779233023</v>
+        <v>255.0853779233018</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078203837</v>
+        <v>8.628502078203951</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697945</v>
+        <v>343.3088093698011</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283477</v>
+        <v>565.6855987283411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.236039841907248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>8.628502078203951</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697945</v>
+        <v>343.3088093698011</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283477</v>
+        <v>565.6855987283411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.5904608530246</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.95550615191331</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938903</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>135.3894336803797</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
         <v>45.44580843958667</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27512,7 +27512,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>98.58071950400895</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>55.67507096160742</v>
       </c>
     </row>
     <row r="4">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610664</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>290.1719423057683</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>50.47975262776178</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27746,7 +27746,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>59.30947799775026</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>155.2411156727556</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>112.5205648326223</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>221.515471933148</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>22.5447505011713</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>292.7562537561406</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.961145804028</v>
+        <v>125.9611458040276</v>
       </c>
       <c r="T8" t="n">
-        <v>207.140152850729</v>
+        <v>207.1401528507289</v>
       </c>
       <c r="U8" t="n">
         <v>251.0540582220405</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8981305946635</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.25119676410786</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.2395866297516</v>
       </c>
       <c r="T9" t="n">
-        <v>111.9883898656699</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3559876391771</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.94620224417754</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.523151438219</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2298479899846</v>
       </c>
       <c r="V10" t="n">
-        <v>170.200292001721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.644933572450563</v>
+        <v>3.644933572450585</v>
       </c>
       <c r="H8" t="n">
-        <v>37.32867594885934</v>
+        <v>37.32867594885956</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5213015519005</v>
+        <v>140.5213015519013</v>
       </c>
       <c r="J8" t="n">
-        <v>309.3591807947763</v>
+        <v>309.3591807947781</v>
       </c>
       <c r="K8" t="n">
-        <v>463.6492189166087</v>
+        <v>463.6492189166115</v>
       </c>
       <c r="L8" t="n">
-        <v>575.1978547344927</v>
+        <v>575.1978547344962</v>
       </c>
       <c r="M8" t="n">
-        <v>640.0184421535604</v>
+        <v>640.0184421535643</v>
       </c>
       <c r="N8" t="n">
-        <v>650.3746096662857</v>
+        <v>650.3746096662895</v>
       </c>
       <c r="O8" t="n">
-        <v>614.1303014552303</v>
+        <v>614.130301455234</v>
       </c>
       <c r="P8" t="n">
-        <v>524.1460038853569</v>
+        <v>524.1460038853601</v>
       </c>
       <c r="Q8" t="n">
-        <v>393.611820321971</v>
+        <v>393.6118203219734</v>
       </c>
       <c r="R8" t="n">
-        <v>228.9610585204479</v>
+        <v>228.9610585204493</v>
       </c>
       <c r="S8" t="n">
-        <v>83.05892378221729</v>
+        <v>83.05892378221779</v>
       </c>
       <c r="T8" t="n">
-        <v>15.95569671340235</v>
+        <v>15.95569671340244</v>
       </c>
       <c r="U8" t="n">
-        <v>0.291594685796045</v>
+        <v>0.2915946857960467</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.950211392089942</v>
+        <v>1.950211392089954</v>
       </c>
       <c r="H9" t="n">
-        <v>18.83493633939497</v>
+        <v>18.83493633939508</v>
       </c>
       <c r="I9" t="n">
-        <v>67.14543608730722</v>
+        <v>67.14543608730763</v>
       </c>
       <c r="J9" t="n">
-        <v>184.2522087588134</v>
+        <v>184.2522087588145</v>
       </c>
       <c r="K9" t="n">
-        <v>314.9163720288395</v>
+        <v>314.9163720288414</v>
       </c>
       <c r="L9" t="n">
-        <v>423.4439252868973</v>
+        <v>423.4439252868999</v>
       </c>
       <c r="M9" t="n">
-        <v>494.1390882501576</v>
+        <v>494.1390882501606</v>
       </c>
       <c r="N9" t="n">
-        <v>507.2174795593924</v>
+        <v>507.2174795593955</v>
       </c>
       <c r="O9" t="n">
-        <v>464.0049008188732</v>
+        <v>464.004900818876</v>
       </c>
       <c r="P9" t="n">
-        <v>372.4048403018066</v>
+        <v>372.4048403018088</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.9427734885337</v>
+        <v>248.9427734885352</v>
       </c>
       <c r="R9" t="n">
-        <v>121.0841774843212</v>
+        <v>121.0841774843219</v>
       </c>
       <c r="S9" t="n">
-        <v>36.22432125219692</v>
+        <v>36.22432125219714</v>
       </c>
       <c r="T9" t="n">
-        <v>7.860720479520421</v>
+        <v>7.860720479520468</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1283033810585489</v>
+        <v>0.1283033810585496</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.634991719281616</v>
+        <v>1.634991719281626</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53656274052202</v>
+        <v>14.53656274052211</v>
       </c>
       <c r="I10" t="n">
-        <v>49.16866006712353</v>
+        <v>49.16866006712383</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5939145532103</v>
+        <v>115.593914553211</v>
       </c>
       <c r="K10" t="n">
-        <v>189.956310658355</v>
+        <v>189.9563106583562</v>
       </c>
       <c r="L10" t="n">
-        <v>243.0786779739232</v>
+        <v>243.0786779739247</v>
       </c>
       <c r="M10" t="n">
-        <v>256.2923837779355</v>
+        <v>256.2923837779371</v>
       </c>
       <c r="N10" t="n">
-        <v>250.1983237333406</v>
+        <v>250.1983237333421</v>
       </c>
       <c r="O10" t="n">
-        <v>231.0986477399144</v>
+        <v>231.0986477399158</v>
       </c>
       <c r="P10" t="n">
-        <v>197.7448166665692</v>
+        <v>197.7448166665704</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.9082611482088</v>
+        <v>136.9082611482096</v>
       </c>
       <c r="R10" t="n">
-        <v>73.5151731233352</v>
+        <v>73.51517312333564</v>
       </c>
       <c r="S10" t="n">
-        <v>28.49344659875325</v>
+        <v>28.49344659875342</v>
       </c>
       <c r="T10" t="n">
-        <v>6.985873709657814</v>
+        <v>6.985873709657856</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08918136650627009</v>
+        <v>0.08918136650627062</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573411</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1848490935915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.7358547888808</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>342.4905264542646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>578.1083652167721</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,16 +34232,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>638.9422653403551</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>81.94118660406885</v>
       </c>
       <c r="K2" t="n">
-        <v>143.8895750699366</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
         <v>140.7360160012659</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>68.29072693268387</v>
@@ -34790,13 +34790,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>168.5427931180332</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>150.2436824009746</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.31327626809</v>
+        <v>128.3132762680918</v>
       </c>
       <c r="K8" t="n">
-        <v>243.5593678716281</v>
+        <v>243.5593678716309</v>
       </c>
       <c r="L8" t="n">
-        <v>339.4314397645055</v>
+        <v>339.431439764509</v>
       </c>
       <c r="M8" t="n">
-        <v>409.6722089262877</v>
+        <v>409.6722089262915</v>
       </c>
       <c r="N8" t="n">
-        <v>420.9615460696947</v>
+        <v>420.9615460696986</v>
       </c>
       <c r="O8" t="n">
-        <v>384.0320900335436</v>
+        <v>384.0320900335472</v>
       </c>
       <c r="P8" t="n">
-        <v>292.9130081300873</v>
+        <v>292.9130081300905</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.3061304475216</v>
+        <v>171.3061304475239</v>
       </c>
       <c r="R8" t="n">
-        <v>13.37552070631577</v>
+        <v>13.37552070631713</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>183.5056174325555</v>
+        <v>57.41458209214778</v>
       </c>
       <c r="K9" t="n">
-        <v>328.4112270736318</v>
+        <v>177.0749330544824</v>
       </c>
       <c r="L9" t="n">
-        <v>284.8895455070231</v>
+        <v>284.8895455070257</v>
       </c>
       <c r="M9" t="n">
-        <v>352.0050543281393</v>
+        <v>352.0050543281423</v>
       </c>
       <c r="N9" t="n">
-        <v>375.8757674760591</v>
+        <v>375.8757674760622</v>
       </c>
       <c r="O9" t="n">
-        <v>321.4086563744287</v>
+        <v>607.0226893713073</v>
       </c>
       <c r="P9" t="n">
-        <v>238.4304328874763</v>
+        <v>440.3210169860202</v>
       </c>
       <c r="Q9" t="n">
-        <v>319.0382871383613</v>
+        <v>108.9609994025137</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.23473443653749</v>
+        <v>22.23473443653819</v>
       </c>
       <c r="K10" t="n">
-        <v>167.6868188324722</v>
+        <v>167.6868188324733</v>
       </c>
       <c r="L10" t="n">
-        <v>270.6687032342394</v>
+        <v>270.6687032342409</v>
       </c>
       <c r="M10" t="n">
-        <v>295.8762607397761</v>
+        <v>295.8762607397776</v>
       </c>
       <c r="N10" t="n">
-        <v>294.3304961125692</v>
+        <v>294.3304961125707</v>
       </c>
       <c r="O10" t="n">
-        <v>255.6837756539541</v>
+        <v>255.6837756539555</v>
       </c>
       <c r="P10" t="n">
-        <v>195.0233759314627</v>
+        <v>195.0233759314639</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.74621789651444</v>
+        <v>50.74621789651526</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353227</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991771</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>253.0508151715732</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36762,16 +36762,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>211.1488143709312</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>446.7666531334388</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>496.3460208959107</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
